--- a/C++.xlsx
+++ b/C++.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
   <si>
     <t>2、定义引用：</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -442,12 +442,68 @@
     <t>Visual Studio中__interface可以定义C++接口</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>C/C++输入输出</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>C语言</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入设备</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入流</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出流</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出设备</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>scanf</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>printf</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cout</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +628,33 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -871,7 +954,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -909,146 +992,203 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1100,6 +1240,1139 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="15906750"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867525" y="15906750"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="15925800"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="15906750"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867525" y="15906750"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="15925800"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="15906750"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867525" y="15906750"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="15925800"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="17792700"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867525" y="17792700"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="17811750"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="16078200"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867525" y="16078200"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="16097250"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="16764000"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867525" y="16764000"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="16783050"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="16087725"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867525" y="16087725"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="16106775"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接箭头连接符 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="16783050"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867525" y="16783050"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接箭头连接符 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="16802100"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1389,10 +2662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2:T82"/>
+  <dimension ref="E2:T111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="R67" sqref="R67"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="U85" sqref="U85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1416,93 +2689,93 @@
     </row>
     <row r="4" spans="5:15">
       <c r="E4" s="5"/>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="5:15">
       <c r="E5" s="5"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="5:15">
       <c r="E6" s="5"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
       <c r="O6" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="5:15">
       <c r="E7" s="5"/>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="59"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="44"/>
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" s="5"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="22"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="34"/>
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="5:15">
       <c r="E9" s="5"/>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="59"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="44"/>
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="5:15">
       <c r="E10" s="5"/>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="14" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="8"/>
@@ -1512,12 +2785,12 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="52"/>
+      <c r="N10" s="17"/>
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="5:15">
       <c r="E11" s="5"/>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="14" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="8"/>
@@ -1527,27 +2800,27 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="52"/>
+      <c r="N11" s="17"/>
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="5:15">
       <c r="E12" s="5"/>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="59"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="44"/>
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="5:15">
       <c r="E13" s="5"/>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="8"/>
@@ -1559,12 +2832,12 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="52"/>
+      <c r="N13" s="17"/>
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="5:15">
       <c r="E14" s="5"/>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="14" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="8"/>
@@ -1576,12 +2849,12 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="52"/>
+      <c r="N14" s="17"/>
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="5:15">
       <c r="E15" s="5"/>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="14" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="8"/>
@@ -1593,24 +2866,24 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="52"/>
+      <c r="N15" s="17"/>
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="5:15">
       <c r="E16" s="5"/>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="56" t="s">
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="55"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="20"/>
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="5:20" ht="14.25" thickBot="1">
@@ -1647,17 +2920,17 @@
     </row>
     <row r="23" spans="5:20">
       <c r="E23" s="5"/>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
@@ -1667,15 +2940,15 @@
     </row>
     <row r="24" spans="5:20">
       <c r="E24" s="5"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
@@ -1685,15 +2958,15 @@
     </row>
     <row r="25" spans="5:20">
       <c r="E25" s="5"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
@@ -1703,17 +2976,17 @@
     </row>
     <row r="26" spans="5:20">
       <c r="E26" s="5"/>
-      <c r="F26" s="57" t="s">
+      <c r="F26" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="59"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="44"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
@@ -1723,15 +2996,15 @@
     </row>
     <row r="27" spans="5:20">
       <c r="E27" s="5"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="32"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="39"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
@@ -1741,17 +3014,17 @@
     </row>
     <row r="28" spans="5:20">
       <c r="E28" s="5"/>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="59"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="44"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
@@ -1761,69 +3034,69 @@
     </row>
     <row r="29" spans="5:20">
       <c r="E29" s="5"/>
-      <c r="F29" s="41" t="s">
+      <c r="F29" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="23" t="s">
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="24" t="s">
+      <c r="P29" s="57"/>
+      <c r="Q29" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="R29" s="24"/>
+      <c r="R29" s="30"/>
       <c r="S29" s="12"/>
       <c r="T29" s="6"/>
     </row>
     <row r="30" spans="5:20">
       <c r="E30" s="5"/>
-      <c r="F30" s="41" t="s">
+      <c r="F30" s="14" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="15" t="s">
+      <c r="J30" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="39">
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="51">
         <v>1</v>
       </c>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="19" t="s">
+      <c r="P30" s="50"/>
+      <c r="Q30" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="R30" s="20"/>
+      <c r="R30" s="32"/>
       <c r="S30" s="12"/>
       <c r="T30" s="6"/>
     </row>
     <row r="31" spans="5:20">
       <c r="E31" s="5"/>
-      <c r="F31" s="41"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="22"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="34"/>
       <c r="S31" s="12" t="s">
         <v>27</v>
       </c>
@@ -1831,45 +3104,45 @@
     </row>
     <row r="32" spans="5:20">
       <c r="E32" s="5"/>
-      <c r="F32" s="41" t="s">
+      <c r="F32" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="15" t="s">
+      <c r="J32" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="37">
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="31">
         <v>1</v>
       </c>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="18" t="s">
+      <c r="P32" s="32"/>
+      <c r="Q32" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="R32" s="18"/>
+      <c r="R32" s="50"/>
       <c r="S32" s="12"/>
       <c r="T32" s="6"/>
     </row>
     <row r="33" spans="5:20">
       <c r="E33" s="5"/>
-      <c r="F33" s="41"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
       <c r="S33" s="12" t="s">
         <v>26</v>
       </c>
@@ -1877,119 +3150,119 @@
     </row>
     <row r="34" spans="5:20">
       <c r="E34" s="5"/>
-      <c r="F34" s="43" t="s">
+      <c r="F34" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15" t="s">
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="39">
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="51">
         <v>1</v>
       </c>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18" t="s">
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="R34" s="18"/>
+      <c r="R34" s="50"/>
       <c r="S34" s="12"/>
       <c r="T34" s="6"/>
     </row>
     <row r="35" spans="5:20">
       <c r="E35" s="5"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
       <c r="S35" s="12"/>
       <c r="T35" s="6"/>
     </row>
     <row r="36" spans="5:20">
       <c r="E36" s="5"/>
-      <c r="F36" s="47" t="s">
+      <c r="F36" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="44"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
       <c r="S36" s="12"/>
       <c r="T36" s="6"/>
     </row>
     <row r="37" spans="5:20">
       <c r="E37" s="5"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="44"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
       <c r="S37" s="12"/>
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="5:20">
       <c r="E38" s="5"/>
-      <c r="F38" s="49" t="s">
+      <c r="F38" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="45"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
       <c r="S38" s="12"/>
       <c r="T38" s="6"/>
     </row>
     <row r="39" spans="5:20">
       <c r="E39" s="5"/>
-      <c r="F39" s="57" t="s">
+      <c r="F39" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="59"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="44"/>
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
@@ -1999,17 +3272,17 @@
     </row>
     <row r="40" spans="5:20">
       <c r="E40" s="5"/>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="22"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="34"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
@@ -2036,52 +3309,52 @@
       <c r="T41" s="11"/>
     </row>
     <row r="44" spans="5:20">
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27" t="s">
+      <c r="G44" s="40"/>
+      <c r="H44" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
     </row>
     <row r="45" spans="5:20">
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
     </row>
     <row r="46" spans="5:20">
-      <c r="F46" s="26" t="s">
+      <c r="F46" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="G46" s="26"/>
-      <c r="H46" s="27" t="s">
+      <c r="G46" s="40"/>
+      <c r="H46" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
     </row>
     <row r="47" spans="5:20">
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
     </row>
     <row r="49" spans="5:16" ht="14.25" thickBot="1"/>
     <row r="50" spans="5:16" ht="13.5" customHeight="1">
@@ -2114,124 +3387,124 @@
     </row>
     <row r="52" spans="5:16">
       <c r="E52" s="5"/>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
       <c r="P52" s="6"/>
     </row>
     <row r="53" spans="5:16">
       <c r="E53" s="5"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
       <c r="P53" s="6"/>
     </row>
     <row r="54" spans="5:16">
       <c r="E54" s="5"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
       <c r="P54" s="6"/>
     </row>
     <row r="55" spans="5:16">
       <c r="E55" s="5"/>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="38"/>
       <c r="P55" s="6"/>
     </row>
     <row r="56" spans="5:16">
       <c r="E56" s="5"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
       <c r="P56" s="6"/>
     </row>
     <row r="57" spans="5:16">
       <c r="E57" s="5"/>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="59"/>
+      <c r="N57" s="59"/>
+      <c r="O57" s="59"/>
       <c r="P57" s="6"/>
     </row>
     <row r="58" spans="5:16">
       <c r="E58" s="5"/>
-      <c r="F58" s="14" t="s">
+      <c r="F58" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="46"/>
       <c r="P58" s="6"/>
     </row>
     <row r="59" spans="5:16">
       <c r="E59" s="5"/>
-      <c r="F59" s="14" t="s">
+      <c r="F59" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="46"/>
       <c r="P59" s="6"/>
     </row>
     <row r="60" spans="5:16">
@@ -2291,228 +3564,639 @@
       <c r="O65" s="25"/>
     </row>
     <row r="67" spans="6:15">
-      <c r="F67" s="17" t="s">
+      <c r="F67" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="26"/>
     </row>
     <row r="68" spans="6:15">
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="26"/>
     </row>
     <row r="69" spans="6:15">
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="26"/>
     </row>
     <row r="70" spans="6:15">
-      <c r="F70" s="35" t="s">
+      <c r="F70" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="37" t="s">
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="37"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="20"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="31"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="31"/>
+      <c r="O70" s="32"/>
     </row>
     <row r="71" spans="6:15">
-      <c r="F71" s="33"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="34"/>
-      <c r="M71" s="34"/>
-      <c r="N71" s="34"/>
-      <c r="O71" s="22"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="33"/>
+      <c r="O71" s="34"/>
     </row>
     <row r="72" spans="6:15">
-      <c r="F72" s="30" t="s">
+      <c r="F72" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="G72" s="31"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="16" t="s">
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="32"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="38"/>
+      <c r="O72" s="39"/>
     </row>
     <row r="73" spans="6:15">
-      <c r="F73" s="33"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="34"/>
-      <c r="L73" s="34"/>
-      <c r="M73" s="34"/>
-      <c r="N73" s="34"/>
-      <c r="O73" s="22"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="33"/>
+      <c r="O73" s="34"/>
     </row>
     <row r="76" spans="6:15">
-      <c r="F76" s="17" t="s">
+      <c r="F76" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="26"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="26"/>
     </row>
     <row r="77" spans="6:15">
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="26"/>
     </row>
     <row r="78" spans="6:15">
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="26"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="26"/>
     </row>
     <row r="79" spans="6:15">
-      <c r="F79" s="35" t="s">
+      <c r="F79" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="37" t="s">
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J79" s="37"/>
-      <c r="K79" s="37"/>
-      <c r="L79" s="37"/>
-      <c r="M79" s="37"/>
-      <c r="N79" s="37"/>
-      <c r="O79" s="20"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="31"/>
+      <c r="M79" s="31"/>
+      <c r="N79" s="31"/>
+      <c r="O79" s="32"/>
     </row>
     <row r="80" spans="6:15">
-      <c r="F80" s="33"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="34"/>
-      <c r="L80" s="34"/>
-      <c r="M80" s="34"/>
-      <c r="N80" s="34"/>
-      <c r="O80" s="22"/>
-    </row>
-    <row r="81" spans="6:15">
-      <c r="F81" s="35" t="s">
+      <c r="F80" s="29"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="33"/>
+      <c r="K80" s="33"/>
+      <c r="L80" s="33"/>
+      <c r="M80" s="33"/>
+      <c r="N80" s="33"/>
+      <c r="O80" s="34"/>
+    </row>
+    <row r="81" spans="5:17">
+      <c r="F81" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="38" t="s">
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="J81" s="37"/>
-      <c r="K81" s="37"/>
-      <c r="L81" s="37"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="37"/>
-      <c r="O81" s="20"/>
-    </row>
-    <row r="82" spans="6:15">
-      <c r="F82" s="33"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="34"/>
-      <c r="L82" s="34"/>
-      <c r="M82" s="34"/>
-      <c r="N82" s="34"/>
-      <c r="O82" s="22"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="31"/>
+      <c r="L81" s="31"/>
+      <c r="M81" s="31"/>
+      <c r="N81" s="31"/>
+      <c r="O81" s="32"/>
+    </row>
+    <row r="82" spans="5:17">
+      <c r="F82" s="29"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="33"/>
+      <c r="L82" s="33"/>
+      <c r="M82" s="33"/>
+      <c r="N82" s="33"/>
+      <c r="O82" s="34"/>
+    </row>
+    <row r="87" spans="5:17" ht="13.5" customHeight="1">
+      <c r="E87" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="26"/>
+      <c r="N87" s="26"/>
+      <c r="O87" s="26"/>
+      <c r="P87" s="26"/>
+      <c r="Q87" s="26"/>
+    </row>
+    <row r="88" spans="5:17" ht="13.5" customHeight="1">
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="26"/>
+      <c r="M88" s="26"/>
+      <c r="N88" s="26"/>
+      <c r="O88" s="26"/>
+      <c r="P88" s="26"/>
+      <c r="Q88" s="26"/>
+    </row>
+    <row r="89" spans="5:17" ht="13.5" customHeight="1">
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="26"/>
+      <c r="N89" s="26"/>
+      <c r="O89" s="26"/>
+      <c r="P89" s="26"/>
+      <c r="Q89" s="26"/>
+    </row>
+    <row r="90" spans="5:17" ht="13.5" customHeight="1">
+      <c r="E90" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F90" s="62"/>
+      <c r="G90" s="62"/>
+      <c r="H90" s="62"/>
+      <c r="I90" s="62"/>
+      <c r="J90" s="62"/>
+      <c r="K90" s="62"/>
+      <c r="L90" s="62"/>
+      <c r="M90" s="62"/>
+      <c r="N90" s="62"/>
+      <c r="O90" s="62"/>
+      <c r="P90" s="62"/>
+      <c r="Q90" s="63"/>
+    </row>
+    <row r="91" spans="5:17" ht="13.5" customHeight="1">
+      <c r="E91" s="64"/>
+      <c r="F91" s="65"/>
+      <c r="G91" s="65"/>
+      <c r="H91" s="65"/>
+      <c r="I91" s="65"/>
+      <c r="J91" s="65"/>
+      <c r="K91" s="65"/>
+      <c r="L91" s="65"/>
+      <c r="M91" s="65"/>
+      <c r="N91" s="65"/>
+      <c r="O91" s="65"/>
+      <c r="P91" s="65"/>
+      <c r="Q91" s="66"/>
+    </row>
+    <row r="92" spans="5:17" ht="14.25">
+      <c r="E92" s="69"/>
+      <c r="F92" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="G92" s="67"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="67"/>
+      <c r="J92" s="67"/>
+      <c r="K92" s="67"/>
+      <c r="L92" s="67"/>
+      <c r="M92" s="67"/>
+      <c r="N92" s="67"/>
+      <c r="O92" s="67"/>
+      <c r="P92" s="67"/>
+      <c r="Q92" s="70"/>
+    </row>
+    <row r="93" spans="5:17">
+      <c r="E93" s="69"/>
+      <c r="F93" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="G93" s="32"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="J93" s="32"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="M93" s="74"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="P93" s="32"/>
+      <c r="Q93" s="70"/>
+    </row>
+    <row r="94" spans="5:17">
+      <c r="E94" s="69"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="58"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="75"/>
+      <c r="M94" s="76"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="58"/>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="70"/>
+    </row>
+    <row r="95" spans="5:17">
+      <c r="E95" s="69"/>
+      <c r="F95" s="45"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="45"/>
+      <c r="J95" s="34"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="77"/>
+      <c r="M95" s="78"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="45"/>
+      <c r="P95" s="34"/>
+      <c r="Q95" s="70"/>
+    </row>
+    <row r="96" spans="5:17" ht="14.25">
+      <c r="E96" s="69"/>
+      <c r="F96" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="G96" s="67"/>
+      <c r="H96" s="67"/>
+      <c r="I96" s="67"/>
+      <c r="J96" s="67"/>
+      <c r="K96" s="67"/>
+      <c r="L96" s="67"/>
+      <c r="M96" s="67"/>
+      <c r="N96" s="67"/>
+      <c r="O96" s="67"/>
+      <c r="P96" s="67"/>
+      <c r="Q96" s="70"/>
+    </row>
+    <row r="97" spans="5:17" ht="13.5" customHeight="1">
+      <c r="E97" s="69"/>
+      <c r="F97" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="G97" s="32"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="J97" s="74"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="M97" s="32"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="P97" s="32"/>
+      <c r="Q97" s="70"/>
+    </row>
+    <row r="98" spans="5:17" ht="13.5" customHeight="1">
+      <c r="E98" s="69"/>
+      <c r="F98" s="58"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="75"/>
+      <c r="J98" s="76"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="58"/>
+      <c r="M98" s="39"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="58"/>
+      <c r="P98" s="39"/>
+      <c r="Q98" s="70"/>
+    </row>
+    <row r="99" spans="5:17" ht="13.5" customHeight="1">
+      <c r="E99" s="69"/>
+      <c r="F99" s="45"/>
+      <c r="G99" s="34"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="77"/>
+      <c r="J99" s="78"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="45"/>
+      <c r="M99" s="34"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="45"/>
+      <c r="P99" s="34"/>
+      <c r="Q99" s="70"/>
+    </row>
+    <row r="100" spans="5:17">
+      <c r="E100" s="71"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="68"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="68"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="68"/>
+      <c r="O100" s="13"/>
+      <c r="P100" s="13"/>
+      <c r="Q100" s="72"/>
+    </row>
+    <row r="101" spans="5:17" ht="13.5" customHeight="1">
+      <c r="E101" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="F101" s="65"/>
+      <c r="G101" s="65"/>
+      <c r="H101" s="65"/>
+      <c r="I101" s="65"/>
+      <c r="J101" s="65"/>
+      <c r="K101" s="65"/>
+      <c r="L101" s="65"/>
+      <c r="M101" s="65"/>
+      <c r="N101" s="65"/>
+      <c r="O101" s="65"/>
+      <c r="P101" s="65"/>
+      <c r="Q101" s="66"/>
+    </row>
+    <row r="102" spans="5:17" ht="13.5" customHeight="1">
+      <c r="E102" s="64"/>
+      <c r="F102" s="65"/>
+      <c r="G102" s="65"/>
+      <c r="H102" s="65"/>
+      <c r="I102" s="65"/>
+      <c r="J102" s="65"/>
+      <c r="K102" s="65"/>
+      <c r="L102" s="65"/>
+      <c r="M102" s="65"/>
+      <c r="N102" s="65"/>
+      <c r="O102" s="65"/>
+      <c r="P102" s="65"/>
+      <c r="Q102" s="66"/>
+    </row>
+    <row r="103" spans="5:17" ht="14.25">
+      <c r="E103" s="69"/>
+      <c r="F103" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="G103" s="67"/>
+      <c r="H103" s="67"/>
+      <c r="I103" s="67"/>
+      <c r="J103" s="67"/>
+      <c r="K103" s="67"/>
+      <c r="L103" s="67"/>
+      <c r="M103" s="67"/>
+      <c r="N103" s="67"/>
+      <c r="O103" s="67"/>
+      <c r="P103" s="67"/>
+      <c r="Q103" s="70"/>
+    </row>
+    <row r="104" spans="5:17" ht="13.5" customHeight="1">
+      <c r="E104" s="69"/>
+      <c r="F104" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="G104" s="32"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="J104" s="32"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="M104" s="74"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="P104" s="32"/>
+      <c r="Q104" s="70"/>
+    </row>
+    <row r="105" spans="5:17" ht="13.5" customHeight="1">
+      <c r="E105" s="69"/>
+      <c r="F105" s="58"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="58"/>
+      <c r="J105" s="39"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="75"/>
+      <c r="M105" s="76"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="58"/>
+      <c r="P105" s="39"/>
+      <c r="Q105" s="70"/>
+    </row>
+    <row r="106" spans="5:17" ht="13.5" customHeight="1">
+      <c r="E106" s="69"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="45"/>
+      <c r="J106" s="34"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="77"/>
+      <c r="M106" s="78"/>
+      <c r="N106" s="12"/>
+      <c r="O106" s="45"/>
+      <c r="P106" s="34"/>
+      <c r="Q106" s="70"/>
+    </row>
+    <row r="107" spans="5:17" ht="14.25">
+      <c r="E107" s="69"/>
+      <c r="F107" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="G107" s="67"/>
+      <c r="H107" s="67"/>
+      <c r="I107" s="67"/>
+      <c r="J107" s="67"/>
+      <c r="K107" s="67"/>
+      <c r="L107" s="67"/>
+      <c r="M107" s="67"/>
+      <c r="N107" s="67"/>
+      <c r="O107" s="67"/>
+      <c r="P107" s="67"/>
+      <c r="Q107" s="70"/>
+    </row>
+    <row r="108" spans="5:17" ht="13.5" customHeight="1">
+      <c r="E108" s="69"/>
+      <c r="F108" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="G108" s="32"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="J108" s="74"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="M108" s="32"/>
+      <c r="N108" s="12"/>
+      <c r="O108" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="P108" s="32"/>
+      <c r="Q108" s="70"/>
+    </row>
+    <row r="109" spans="5:17" ht="13.5" customHeight="1">
+      <c r="E109" s="69"/>
+      <c r="F109" s="58"/>
+      <c r="G109" s="39"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="75"/>
+      <c r="J109" s="76"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="58"/>
+      <c r="M109" s="39"/>
+      <c r="N109" s="12"/>
+      <c r="O109" s="58"/>
+      <c r="P109" s="39"/>
+      <c r="Q109" s="70"/>
+    </row>
+    <row r="110" spans="5:17" ht="13.5" customHeight="1">
+      <c r="E110" s="69"/>
+      <c r="F110" s="45"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="77"/>
+      <c r="J110" s="78"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="45"/>
+      <c r="M110" s="34"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="45"/>
+      <c r="P110" s="34"/>
+      <c r="Q110" s="70"/>
+    </row>
+    <row r="111" spans="5:17">
+      <c r="E111" s="71"/>
+      <c r="F111" s="68"/>
+      <c r="G111" s="68"/>
+      <c r="H111" s="68"/>
+      <c r="I111" s="68"/>
+      <c r="J111" s="68"/>
+      <c r="K111" s="68"/>
+      <c r="L111" s="68"/>
+      <c r="M111" s="68"/>
+      <c r="N111" s="68"/>
+      <c r="O111" s="68"/>
+      <c r="P111" s="68"/>
+      <c r="Q111" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="F38:N38"/>
-    <mergeCell ref="F64:O64"/>
-    <mergeCell ref="F65:O65"/>
-    <mergeCell ref="F76:O78"/>
-    <mergeCell ref="F79:H80"/>
-    <mergeCell ref="F81:H82"/>
-    <mergeCell ref="I79:O80"/>
-    <mergeCell ref="I81:O82"/>
-    <mergeCell ref="F67:O69"/>
-    <mergeCell ref="F70:H71"/>
-    <mergeCell ref="F72:H73"/>
-    <mergeCell ref="I70:O71"/>
-    <mergeCell ref="I72:O73"/>
-    <mergeCell ref="F44:G45"/>
-    <mergeCell ref="F46:G47"/>
-    <mergeCell ref="H44:M45"/>
-    <mergeCell ref="H46:M47"/>
-    <mergeCell ref="O32:P33"/>
-    <mergeCell ref="F39:N39"/>
-    <mergeCell ref="F40:N40"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="Q34:R35"/>
-    <mergeCell ref="O34:P35"/>
-    <mergeCell ref="F36:N37"/>
-    <mergeCell ref="Q32:R33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F4:N6"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="F9:N9"/>
-    <mergeCell ref="F12:N12"/>
-    <mergeCell ref="F23:N25"/>
+  <mergeCells count="74">
+    <mergeCell ref="F107:P107"/>
+    <mergeCell ref="F108:G110"/>
+    <mergeCell ref="I108:J110"/>
+    <mergeCell ref="L108:M110"/>
+    <mergeCell ref="O108:P110"/>
+    <mergeCell ref="F97:G99"/>
+    <mergeCell ref="I97:J99"/>
+    <mergeCell ref="L97:M99"/>
+    <mergeCell ref="O97:P99"/>
+    <mergeCell ref="F92:P92"/>
+    <mergeCell ref="F96:P96"/>
+    <mergeCell ref="F104:G106"/>
+    <mergeCell ref="I104:J106"/>
+    <mergeCell ref="L104:M106"/>
+    <mergeCell ref="O104:P106"/>
+    <mergeCell ref="F103:P103"/>
+    <mergeCell ref="E101:Q102"/>
+    <mergeCell ref="F93:G95"/>
+    <mergeCell ref="I93:J95"/>
+    <mergeCell ref="L93:M95"/>
+    <mergeCell ref="O93:P95"/>
+    <mergeCell ref="E90:Q91"/>
+    <mergeCell ref="E87:Q89"/>
     <mergeCell ref="O30:P31"/>
     <mergeCell ref="Q30:R31"/>
     <mergeCell ref="O29:P29"/>
@@ -2524,8 +4208,41 @@
     <mergeCell ref="J29:N29"/>
     <mergeCell ref="J30:N30"/>
     <mergeCell ref="J31:N31"/>
+    <mergeCell ref="F4:N6"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="F12:N12"/>
+    <mergeCell ref="F23:N25"/>
+    <mergeCell ref="Q34:R35"/>
+    <mergeCell ref="O34:P35"/>
+    <mergeCell ref="F36:N37"/>
+    <mergeCell ref="Q32:R33"/>
+    <mergeCell ref="F34:I34"/>
     <mergeCell ref="J32:N32"/>
     <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O32:P33"/>
+    <mergeCell ref="F39:N39"/>
+    <mergeCell ref="F40:N40"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F81:H82"/>
+    <mergeCell ref="I79:O80"/>
+    <mergeCell ref="I81:O82"/>
+    <mergeCell ref="F67:O69"/>
+    <mergeCell ref="F70:H71"/>
+    <mergeCell ref="F72:H73"/>
+    <mergeCell ref="I70:O71"/>
+    <mergeCell ref="I72:O73"/>
+    <mergeCell ref="F38:N38"/>
+    <mergeCell ref="F64:O64"/>
+    <mergeCell ref="F65:O65"/>
+    <mergeCell ref="F76:O78"/>
+    <mergeCell ref="F79:H80"/>
+    <mergeCell ref="F44:G45"/>
+    <mergeCell ref="F46:G47"/>
+    <mergeCell ref="H44:M45"/>
+    <mergeCell ref="H46:M47"/>
     <mergeCell ref="F57:O57"/>
     <mergeCell ref="F58:O58"/>
     <mergeCell ref="F59:O59"/>
@@ -2534,5 +4251,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>